--- a/csp301/Final Analysis.xlsx
+++ b/csp301/Final Analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="1712">
   <si>
     <t>File Name</t>
   </si>
@@ -5150,6 +5150,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Triangles</t>
   </si>
 </sst>
 </file>
@@ -6441,11 +6444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,9 +6458,11 @@
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
@@ -6476,8 +6481,11 @@
       <c r="F1" s="4" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
@@ -6496,8 +6504,11 @@
       <c r="F2" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -6516,8 +6527,11 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -6536,8 +6550,11 @@
       <c r="F4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -6556,8 +6573,11 @@
       <c r="F5" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -6576,8 +6596,11 @@
       <c r="F6" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -6596,8 +6619,11 @@
       <c r="F7" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -6616,8 +6642,11 @@
       <c r="F8" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -6636,8 +6665,11 @@
       <c r="F9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -6656,8 +6688,11 @@
       <c r="F10" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -6676,8 +6711,11 @@
       <c r="F11" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -6696,8 +6734,11 @@
       <c r="F12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -6716,8 +6757,11 @@
       <c r="F13" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
@@ -6736,8 +6780,11 @@
       <c r="F14" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -6756,8 +6803,11 @@
       <c r="F15" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -6776,8 +6826,11 @@
       <c r="F16" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -6796,8 +6849,11 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -6816,8 +6872,11 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
@@ -6836,8 +6895,11 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>81</v>
       </c>
@@ -6856,8 +6918,11 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
@@ -6876,8 +6941,11 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
@@ -6896,8 +6964,11 @@
       <c r="F22" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -6916,8 +6987,11 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>85</v>
       </c>
@@ -6936,8 +7010,11 @@
       <c r="F24" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
@@ -6956,8 +7033,11 @@
       <c r="F25" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
@@ -6976,8 +7056,11 @@
       <c r="F26" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -6996,8 +7079,11 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
@@ -7016,8 +7102,11 @@
       <c r="F28" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -7036,8 +7125,11 @@
       <c r="F29" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -7056,8 +7148,11 @@
       <c r="F30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -7076,8 +7171,11 @@
       <c r="F31" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
@@ -7096,8 +7194,11 @@
       <c r="F32" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -7116,8 +7217,11 @@
       <c r="F33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>96</v>
       </c>
@@ -7136,8 +7240,11 @@
       <c r="F34" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -7156,8 +7263,11 @@
       <c r="F35" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
@@ -7176,8 +7286,11 @@
       <c r="F36" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
@@ -7196,8 +7309,11 @@
       <c r="F37" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -7216,8 +7332,11 @@
       <c r="F38" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>101</v>
       </c>
@@ -7236,8 +7355,11 @@
       <c r="F39" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>102</v>
       </c>
@@ -7256,8 +7378,11 @@
       <c r="F40" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
@@ -7276,8 +7401,11 @@
       <c r="F41" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -7296,8 +7424,11 @@
       <c r="F42" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
@@ -7316,8 +7447,11 @@
       <c r="F43" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>106</v>
       </c>
@@ -7336,8 +7470,11 @@
       <c r="F44" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>107</v>
       </c>
@@ -7356,8 +7493,11 @@
       <c r="F45" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>108</v>
       </c>
@@ -7376,8 +7516,11 @@
       <c r="F46" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>109</v>
       </c>
@@ -7396,8 +7539,11 @@
       <c r="F47" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>110</v>
       </c>
@@ -7416,8 +7562,11 @@
       <c r="F48" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>111</v>
       </c>
@@ -7436,8 +7585,11 @@
       <c r="F49" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
@@ -7456,8 +7608,11 @@
       <c r="F50" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -7476,8 +7631,11 @@
       <c r="F51" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>114</v>
       </c>
@@ -7496,8 +7654,11 @@
       <c r="F52" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
@@ -7516,8 +7677,11 @@
       <c r="F53" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
@@ -7536,8 +7700,11 @@
       <c r="F54" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
@@ -7556,8 +7723,11 @@
       <c r="F55" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -7576,8 +7746,11 @@
       <c r="F56" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
@@ -7596,8 +7769,11 @@
       <c r="F57" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>120</v>
       </c>
@@ -7616,8 +7792,11 @@
       <c r="F58" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>121</v>
       </c>
@@ -7636,8 +7815,11 @@
       <c r="F59" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -7656,8 +7838,11 @@
       <c r="F60" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
@@ -7676,8 +7861,11 @@
       <c r="F61" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
@@ -7696,8 +7884,11 @@
       <c r="F62" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -7716,8 +7907,11 @@
       <c r="F63" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
@@ -7736,8 +7930,11 @@
       <c r="F64" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
@@ -7756,8 +7953,11 @@
       <c r="F65" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
@@ -7776,8 +7976,11 @@
       <c r="F66" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -7796,8 +7999,11 @@
       <c r="F67" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>130</v>
       </c>
@@ -7816,8 +8022,11 @@
       <c r="F68" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
@@ -7836,8 +8045,11 @@
       <c r="F69" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>132</v>
       </c>
@@ -7856,8 +8068,11 @@
       <c r="F70" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>133</v>
       </c>
@@ -7876,8 +8091,11 @@
       <c r="F71" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>134</v>
       </c>
@@ -7896,8 +8114,11 @@
       <c r="F72" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
@@ -7916,8 +8137,11 @@
       <c r="F73" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>136</v>
       </c>
@@ -7936,8 +8160,11 @@
       <c r="F74" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
@@ -7956,8 +8183,11 @@
       <c r="F75" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>138</v>
       </c>
@@ -7976,8 +8206,11 @@
       <c r="F76" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
@@ -7996,8 +8229,11 @@
       <c r="F77" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
@@ -8016,8 +8252,11 @@
       <c r="F78" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>141</v>
       </c>
@@ -8036,8 +8275,11 @@
       <c r="F79" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>142</v>
       </c>
@@ -8056,8 +8298,11 @@
       <c r="F80" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -8076,8 +8321,11 @@
       <c r="F81" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>144</v>
       </c>
@@ -8096,8 +8344,11 @@
       <c r="F82" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>145</v>
       </c>
@@ -8116,8 +8367,11 @@
       <c r="F83" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>146</v>
       </c>
@@ -8136,8 +8390,11 @@
       <c r="F84" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>147</v>
       </c>
@@ -8156,8 +8413,11 @@
       <c r="F85" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>148</v>
       </c>
@@ -8176,8 +8436,11 @@
       <c r="F86" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
@@ -8196,8 +8459,11 @@
       <c r="F87" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>150</v>
       </c>
@@ -8216,8 +8482,11 @@
       <c r="F88" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>151</v>
       </c>
@@ -8236,8 +8505,11 @@
       <c r="F89" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>152</v>
       </c>
@@ -8256,8 +8528,11 @@
       <c r="F90" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>153</v>
       </c>
@@ -8276,8 +8551,11 @@
       <c r="F91" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>154</v>
       </c>
@@ -8296,8 +8574,11 @@
       <c r="F92" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>155</v>
       </c>
@@ -8316,8 +8597,11 @@
       <c r="F93" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>156</v>
       </c>
@@ -8336,8 +8620,11 @@
       <c r="F94" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>157</v>
       </c>
@@ -8356,8 +8643,11 @@
       <c r="F95" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>158</v>
       </c>
@@ -8376,8 +8666,11 @@
       <c r="F96" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>159</v>
       </c>
@@ -8396,8 +8689,11 @@
       <c r="F97" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>160</v>
       </c>
@@ -8416,8 +8712,11 @@
       <c r="F98" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>161</v>
       </c>
@@ -8436,8 +8735,11 @@
       <c r="F99" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>162</v>
       </c>
@@ -8456,8 +8758,11 @@
       <c r="F100" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>163</v>
       </c>
@@ -8476,8 +8781,11 @@
       <c r="F101" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>164</v>
       </c>
@@ -8496,8 +8804,11 @@
       <c r="F102" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>165</v>
       </c>
@@ -8516,8 +8827,11 @@
       <c r="F103" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>166</v>
       </c>
@@ -8536,8 +8850,11 @@
       <c r="F104" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>167</v>
       </c>
@@ -8556,8 +8873,11 @@
       <c r="F105" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>168</v>
       </c>
@@ -8575,6 +8895,9 @@
       </c>
       <c r="F106" s="3">
         <v>3</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/csp301/Final Analysis.xlsx
+++ b/csp301/Final Analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1712">
   <si>
     <t>File Name</t>
   </si>
@@ -5299,166 +5299,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>6</c:v>
@@ -5467,145 +5467,145 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="85">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="86">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>2</c:v>
@@ -5629,148 +5629,148 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -5779,157 +5779,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="78">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="82">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="85">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="86">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0</c:v>
@@ -5950,11 +5950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88325120"/>
-        <c:axId val="88323200"/>
+        <c:axId val="75492352"/>
+        <c:axId val="75494528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88325120"/>
+        <c:axId val="75492352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,12 +5983,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88323200"/>
+        <c:crossAx val="75494528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88323200"/>
+        <c:axId val="75494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,7 +6018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88325120"/>
+        <c:crossAx val="75492352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15051,11 +15051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88252800"/>
-        <c:axId val="88222336"/>
+        <c:axId val="76032256"/>
+        <c:axId val="76042624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88252800"/>
+        <c:axId val="76032256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15084,12 +15084,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88222336"/>
+        <c:crossAx val="76042624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88222336"/>
+        <c:axId val="76042624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15119,7 +15119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88252800"/>
+        <c:crossAx val="76032256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16406,11 +16406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16449,13 +16449,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -16464,7 +16464,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -16472,19 +16472,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
@@ -16495,197 +16495,197 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>25</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -16694,21 +16694,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -16717,44 +16717,44 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>25</v>
-      </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
@@ -16771,59 +16771,59 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -16832,67 +16832,67 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -16901,21 +16901,21 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -16924,21 +16924,30 @@
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -16947,67 +16956,112 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(C2:C50)</f>
+        <v>7.7551020408163263</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(D2:D50)</f>
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(E2:E50)</f>
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(C51:C93)</f>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(D51:D93)</f>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(E51:E93)</f>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(C94:C106)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(D94:D106)</f>
+        <v>1.8461538461538463</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(E94:E106)</f>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -17016,44 +17070,44 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -17062,21 +17116,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G28" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -17085,113 +17139,113 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -17200,21 +17254,21 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -17223,21 +17277,21 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -17246,21 +17300,21 @@
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -17269,15 +17323,15 @@
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>64</v>
@@ -17295,18 +17349,18 @@
         <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -17315,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" s="3">
         <v>6</v>
@@ -17323,59 +17377,59 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G40" s="3">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -17384,53 +17438,53 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -17438,13 +17492,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -17453,21 +17507,21 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -17476,21 +17530,21 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -17499,122 +17553,122 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>3</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G51" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -17622,22 +17676,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -17645,62 +17699,62 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
         <v>4</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
       <c r="E55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
         <v>6</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -17709,21 +17763,21 @@
         <v>6</v>
       </c>
       <c r="G56" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
         <v>4</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -17732,81 +17786,81 @@
         <v>4</v>
       </c>
       <c r="G57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C58" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
         <v>4</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C60" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D60" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E60" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>94</v>
@@ -17815,44 +17869,44 @@
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>94</v>
@@ -17861,136 +17915,136 @@
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>21</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>21</v>
+      </c>
+      <c r="G66" s="3">
         <v>2</v>
-      </c>
-      <c r="D66" s="3">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="3">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>16</v>
+      </c>
+      <c r="G67" s="3">
         <v>4</v>
-      </c>
-      <c r="E67" s="3">
-        <v>2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>7</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
@@ -17999,67 +18053,67 @@
         <v>0</v>
       </c>
       <c r="D69" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="3">
+        <v>5</v>
+      </c>
+      <c r="G69" s="3">
         <v>6</v>
-      </c>
-      <c r="G69" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G70" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>94</v>
@@ -18068,67 +18122,67 @@
         <v>0</v>
       </c>
       <c r="D72" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G74" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>94</v>
@@ -18137,113 +18191,113 @@
         <v>0</v>
       </c>
       <c r="D75" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G75" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G76" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="3">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
         <v>14</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>16</v>
-      </c>
       <c r="G77" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3">
         <v>3</v>
-      </c>
-      <c r="D78" s="3">
-        <v>10</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>13</v>
-      </c>
-      <c r="G78" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79" s="3">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5</v>
+      </c>
+      <c r="G79" s="3">
         <v>4</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>7</v>
-      </c>
-      <c r="G79" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>94</v>
@@ -18252,21 +18306,21 @@
         <v>0</v>
       </c>
       <c r="D80" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" s="3">
         <v>0</v>
       </c>
       <c r="F80" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G80" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>94</v>
@@ -18275,21 +18329,21 @@
         <v>0</v>
       </c>
       <c r="D81" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>94</v>
@@ -18298,21 +18352,21 @@
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E82" s="3">
         <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>94</v>
@@ -18321,21 +18375,21 @@
         <v>0</v>
       </c>
       <c r="D83" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>94</v>
@@ -18344,21 +18398,21 @@
         <v>0</v>
       </c>
       <c r="D84" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G84" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>94</v>
@@ -18370,18 +18424,18 @@
         <v>7</v>
       </c>
       <c r="E85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G85" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>94</v>
@@ -18390,44 +18444,44 @@
         <v>0</v>
       </c>
       <c r="D86" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G86" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G87" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>94</v>
@@ -18436,21 +18490,21 @@
         <v>0</v>
       </c>
       <c r="D88" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G88" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>94</v>
@@ -18473,7 +18527,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>94</v>
@@ -18482,21 +18536,21 @@
         <v>0</v>
       </c>
       <c r="D90" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G90" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>94</v>
@@ -18505,21 +18559,21 @@
         <v>0</v>
       </c>
       <c r="D91" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G91" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>94</v>
@@ -18537,12 +18591,12 @@
         <v>5</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>94</v>
@@ -18551,269 +18605,269 @@
         <v>0</v>
       </c>
       <c r="D93" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G93" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C94" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C95" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D95" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C96" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D96" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F96" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C97" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C98" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
       </c>
       <c r="D99" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G99" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C100" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D100" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C101" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D101" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C102" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D102" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G102" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E103" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3">
         <v>5</v>
       </c>
       <c r="G103" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D104" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -18863,6 +18917,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G106">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19621,11 +19678,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1491"/>
+  <dimension ref="A1:I1491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19958,7 +20015,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>235</v>
       </c>
@@ -19978,7 +20035,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>236</v>
       </c>
@@ -19998,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>237</v>
       </c>
@@ -20018,7 +20075,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>238</v>
       </c>
@@ -20038,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>239</v>
       </c>
@@ -20058,7 +20115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>240</v>
       </c>
@@ -20078,7 +20135,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>241</v>
       </c>
@@ -20098,7 +20155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>242</v>
       </c>
@@ -20118,7 +20175,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>243</v>
       </c>
@@ -20137,8 +20194,14 @@
       <c r="F25" s="3">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>244</v>
       </c>
@@ -20156,13 +20219,20 @@
       </c>
       <c r="F26" s="3">
         <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
       </c>
       <c r="H26">
         <f>AVERAGE(C2:C759)</f>
         <v>2.2269129287598943</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>AVERAGE(C760:C1491)</f>
+        <v>24.571038251366119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>245</v>
       </c>
@@ -20180,13 +20250,20 @@
       </c>
       <c r="F27" s="3">
         <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
       </c>
       <c r="H27">
         <f>AVERAGE(D2:D759)</f>
         <v>22.184696569920845</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>AVERAGE(D760:D1491)</f>
+        <v>2.3060109289617485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>246</v>
       </c>
@@ -20205,12 +20282,8 @@
       <c r="F28" s="3">
         <v>228</v>
       </c>
-      <c r="H28">
-        <f>AVERAGE(C760:C1491)</f>
-        <v>24.571038251366119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>247</v>
       </c>
@@ -20229,12 +20302,8 @@
       <c r="F29" s="3">
         <v>37</v>
       </c>
-      <c r="H29">
-        <f>AVERAGE(D760:D1491)</f>
-        <v>2.3060109289617485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>248</v>
       </c>
@@ -20254,7 +20323,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>249</v>
       </c>
@@ -20274,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>250</v>
       </c>

--- a/csp301/Final Analysis.xlsx
+++ b/csp301/Final Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="booksGraphAnalysis" sheetId="1" r:id="rId1"/>
@@ -5950,11 +5950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75492352"/>
-        <c:axId val="75494528"/>
+        <c:axId val="97774592"/>
+        <c:axId val="97776768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75492352"/>
+        <c:axId val="97774592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,12 +5983,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75494528"/>
+        <c:crossAx val="97776768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75494528"/>
+        <c:axId val="97776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,7 +6018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75492352"/>
+        <c:crossAx val="97774592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15051,11 +15051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76032256"/>
-        <c:axId val="76042624"/>
+        <c:axId val="99756288"/>
+        <c:axId val="99766656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76032256"/>
+        <c:axId val="99756288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15084,12 +15084,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76042624"/>
+        <c:crossAx val="99766656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76042624"/>
+        <c:axId val="99766656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15119,7 +15119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76032256"/>
+        <c:crossAx val="99756288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15498,11 +15498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16398,6 +16398,18 @@
         <v>0.75732807511015499</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <f>MIN(D2:D52)</f>
+        <v>0.34920634920634902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <f>MAX(D3:D52)</f>
+        <v>0.43310657596371799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16408,9 +16420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19680,7 +19692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
